--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645DBB98-16AF-4DF5-8E9B-C5BE98BDD60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549CB9A-52A6-40AC-B0DA-BDE0500B7A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -33,18 +33,6 @@
   </si>
   <si>
     <t>Test@12345</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>PQR</t>
-  </si>
-  <si>
-    <t>BB</t>
   </si>
 </sst>
 </file>
@@ -431,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,34 +443,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
